--- a/Exercícios-aula3/1.2-exercicio-locadora/1.2-exercicio-locadora-fisico.xlsx
+++ b/Exercícios-aula3/1.2-exercicio-locadora/1.2-exercicio-locadora-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Exercícios-aula3\1.2-exercicio-locadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Pasta\Exercícios-aula3\1.2-exercicio-locadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E8EE07-F6F7-4A13-B69E-6B10FAFC62CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A93180-D90E-4CDD-88FF-2CE60495EEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="930" windowWidth="11985" windowHeight="11835" xr2:uid="{118A0AAB-BA29-49E0-8589-9E906F134C54}"/>
+    <workbookView xWindow="3360" yWindow="936" windowWidth="11988" windowHeight="11832" xr2:uid="{118A0AAB-BA29-49E0-8589-9E906F134C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>empresa</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>258.741.789-89</t>
+  </si>
+  <si>
+    <t>unidas</t>
   </si>
 </sst>
 </file>
@@ -178,12 +181,84 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -235,17 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -266,78 +330,188 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3701"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -646,383 +820,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0997EBEC-F70E-403C-BD47-EA44499262F3}">
-  <dimension ref="B2:N14"/>
+  <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="J2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="1"/>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="44">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
         <v>3</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="44">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8">
+      <c r="J5" s="18">
         <v>2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K5" s="18">
         <v>4</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="44">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8">
+      <c r="J6" s="18">
         <v>3</v>
       </c>
-      <c r="J6" s="14">
+      <c r="K6" s="18">
         <v>2</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="12">
+      <c r="J7" s="19">
         <v>4</v>
       </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="5" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="L9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="O10" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36">
         <v>2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="H11" s="36">
         <v>2</v>
       </c>
-      <c r="H11" s="16">
+      <c r="I11" s="37">
         <v>44275</v>
       </c>
-      <c r="I11" s="17">
+      <c r="J11" s="38">
         <v>44280</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="30">
+        <v>1</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8">
+      <c r="F12" s="36">
         <v>2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="G12" s="36">
         <v>4</v>
       </c>
-      <c r="G12" s="14">
+      <c r="H12" s="36">
         <v>3</v>
       </c>
-      <c r="H12" s="16">
+      <c r="I12" s="37">
         <v>44307</v>
       </c>
-      <c r="I12" s="17">
+      <c r="J12" s="38">
         <v>44312</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8">
+      <c r="L12" s="30">
         <v>2</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8">
+      <c r="F13" s="36">
         <v>3</v>
       </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="G13" s="36">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
         <v>4</v>
       </c>
-      <c r="H13" s="16">
+      <c r="I13" s="37">
         <v>44338</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J13" s="38">
         <v>44343</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="8">
+      <c r="L13" s="30">
         <v>3</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="22">
         <v>4</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12">
+      <c r="F14" s="39">
         <v>4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="39">
         <v>3</v>
       </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="H14" s="39">
+        <v>1</v>
+      </c>
+      <c r="I14" s="40">
         <v>44370</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J14" s="41">
         <v>44375</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12">
+      <c r="L14" s="33">
         <v>4</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="M14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="35" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Exercícios-aula3/1.2-exercicio-locadora/1.2-exercicio-locadora-fisico.xlsx
+++ b/Exercícios-aula3/1.2-exercicio-locadora/1.2-exercicio-locadora-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Pasta\Exercícios-aula3\1.2-exercicio-locadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Exercícios-aula3\1.2-exercicio-locadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A93180-D90E-4CDD-88FF-2CE60495EEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6806EBF9-9FC3-4851-89AB-76FFF610FA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="936" windowWidth="11988" windowHeight="11832" xr2:uid="{118A0AAB-BA29-49E0-8589-9E906F134C54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{118A0AAB-BA29-49E0-8589-9E906F134C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>empresa</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>unidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -362,12 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,15 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,24 +414,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,12 +444,6 @@
     <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,13 +456,52 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,377 +826,380 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="37"/>
+      <c r="E2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="J2" s="13" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="J2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="44">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
         <v>3</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="31">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="13">
         <v>4</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="44">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="13">
         <v>3</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>4</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45">
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="32">
         <v>2</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="14">
         <v>4</v>
       </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="24" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="35"/>
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="L9" s="27" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="L9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="36">
-        <v>1</v>
-      </c>
-      <c r="G11" s="36">
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
         <v>2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="25">
         <v>2</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="26">
         <v>44275</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="27">
         <v>44280</v>
       </c>
-      <c r="L11" s="30">
-        <v>1</v>
-      </c>
-      <c r="M11" s="30" t="s">
+      <c r="L11" s="19">
+        <v>1</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>2</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="25">
         <v>2</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="25">
         <v>4</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="25">
         <v>3</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="26">
         <v>44307</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="27">
         <v>44312</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="19">
         <v>2</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>3</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="25">
         <v>3</v>
       </c>
-      <c r="G13" s="36">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
         <v>4</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="26">
         <v>44338</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="27">
         <v>44343</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="19">
         <v>3</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="22">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="28">
         <v>4</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="28">
         <v>3</v>
       </c>
-      <c r="H14" s="39">
-        <v>1</v>
-      </c>
-      <c r="I14" s="40">
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
         <v>44370</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="30">
         <v>44375</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="22">
         <v>4</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="24" t="s">
         <v>45</v>
       </c>
     </row>
